--- a/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="接口问题" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="130">
   <si>
     <t>接口地址</t>
   </si>
@@ -320,9 +320,6 @@
     <t>imagePath没有返回</t>
   </si>
   <si>
-    <t xml:space="preserve"> /live/getCourseItems</t>
-  </si>
-  <si>
     <t>isCollection 返回14(初始0点击一次后值为1再点击无变化，没有取消收藏返回状态）</t>
   </si>
   <si>
@@ -348,80 +345,95 @@
     <t>成功生成订单库存前后不变</t>
   </si>
   <si>
+    <t>totalMoney缺少</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmSiteOrder?userID=1&amp;buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;siteReservationID=f9cb2ad88976437a818126782f1a92ba%2Cd47300d0a483491e9b4840c9af129a8a</t>
+  </si>
+  <si>
+    <t>缺少groupBuy</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSiteIndex?buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/getGroupBuyDetail</t>
+  </si>
+  <si>
+    <t>isAnyTimeCancel返回值有误</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
+  </si>
+  <si>
+    <t>isExpiredCancel返回值有误</t>
+  </si>
+  <si>
+    <t>isFreeReservation返回值有误</t>
+  </si>
+  <si>
+    <t>originalPrice、discountedPrice返回不是当前规格的数据</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?userID=1&amp;buildingID=1&amp;businessID=438b424856ce44428f2f4a83e9bad1f7&amp;categoryID=118198a742314b41b5b0aa4a0b451316</t>
+  </si>
+  <si>
+    <t>commodityNumber返回的不是当前规格的数量</t>
+  </si>
+  <si>
+    <t>返回的标签0:"电影"应为labelName:"电影"</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSites?userID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>正确生成订单后，服务库存不变</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmServiceOrder?userID=1&amp;buildingID=1&amp;businessID=2cd88f7156814937bbc97a2775a671d9&amp;serviceID=d5249392fc3f4b008893855bc7bd727b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/confirmGroupBuyOrder</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmGroupBuyOrder?userID=1&amp;buildingID=1&amp;businessID=8f23207f56e74b82be56d7687843be39&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
+  </si>
+  <si>
+    <t>/live/addShoppingCart</t>
+  </si>
+  <si>
+    <t>获取数据为空</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/getCourseItems</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> /live/confirmSiteOrder</t>
-  </si>
-  <si>
-    <t>totalMoney缺少</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmSiteOrder?userID=1&amp;buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;siteReservationID=f9cb2ad88976437a818126782f1a92ba%2Cd47300d0a483491e9b4840c9af129a8a</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> /live/getSiteIndex</t>
-  </si>
-  <si>
-    <t>缺少groupBuy</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSiteIndex?buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/getGroupBuyDetail</t>
-  </si>
-  <si>
-    <t>isAnyTimeCancel返回值有误</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
-  </si>
-  <si>
-    <t>isExpiredCancel返回值有误</t>
-  </si>
-  <si>
-    <t>isFreeReservation返回值有误</t>
-  </si>
-  <si>
-    <t>originalPrice、discountedPrice返回不是当前规格的数据</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?userID=1&amp;buildingID=1&amp;businessID=438b424856ce44428f2f4a83e9bad1f7&amp;categoryID=118198a742314b41b5b0aa4a0b451316</t>
-  </si>
-  <si>
-    <t>commodityNumber返回的不是当前规格的数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>live/getSites</t>
-  </si>
-  <si>
-    <t>返回的标签0:"电影"应为labelName:"电影"</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSites?userID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>正确生成订单后，服务库存不变</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmServiceOrder?userID=1&amp;buildingID=1&amp;businessID=2cd88f7156814937bbc97a2775a671d9&amp;serviceID=d5249392fc3f4b008893855bc7bd727b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/confirmGroupBuyOrder</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmGroupBuyOrder?userID=1&amp;buildingID=1&amp;businessID=8f23207f56e74b82be56d7687843be39&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/addShoppingCart?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c9f2e8a626e54330824114ec98121d20&amp;commodityID=8f125c3ac6394088a72473c6b70e1c75&amp;specificationID=a3660f76be074e0dac6400b68ae99f51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/live/getCommoditiesByCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,337 +472,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -798,251 +494,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1062,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1080,11 +537,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1095,76 +549,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1455,19 +902,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
     <col min="2" max="3" width="54.125" style="2" customWidth="1"/>
@@ -1501,14 +948,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8">
@@ -1525,11 +972,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="8">
         <v>42940</v>
       </c>
@@ -1543,12 +990,12 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:7">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="8">
         <v>42940</v>
       </c>
@@ -1563,11 +1010,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="11">
         <v>42940</v>
       </c>
@@ -1581,7 +1028,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:7">
+    <row r="6" spans="1:7" ht="40.5">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1604,14 +1051,14 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="11">
@@ -1628,10 +1075,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="14"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="11">
         <v>42940</v>
       </c>
@@ -1645,7 +1093,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:7">
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1668,14 +1116,14 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A10" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="11">
@@ -1692,10 +1140,11 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="11">
         <v>42940</v>
       </c>
@@ -1710,10 +1159,11 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="11">
         <v>42940</v>
       </c>
@@ -1727,7 +1177,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="13" ht="40.5" spans="1:7">
+    <row r="13" spans="1:7" ht="40.5">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1750,14 +1200,14 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="33" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="11">
@@ -1774,10 +1224,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="11">
         <v>42940</v>
       </c>
@@ -1792,10 +1243,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C16" s="34"/>
       <c r="D16" s="11">
         <v>42941</v>
       </c>
@@ -1810,10 +1262,11 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C17" s="34"/>
       <c r="D17" s="11">
         <v>42940</v>
       </c>
@@ -1827,14 +1280,14 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="11">
@@ -1847,10 +1300,11 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C19" s="34"/>
       <c r="D19" s="11">
         <v>42940</v>
       </c>
@@ -1865,10 +1319,11 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C20" s="34"/>
       <c r="D20" s="11">
         <v>42940</v>
       </c>
@@ -1882,14 +1337,14 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="8">
@@ -1898,7 +1353,7 @@
       <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="10">
@@ -1906,18 +1361,18 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="8">
         <v>42940</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="10">
@@ -1925,18 +1380,18 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="8">
         <v>42940</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="10">
@@ -1944,18 +1399,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="8">
         <v>42940</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="10">
@@ -1963,18 +1418,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="8">
         <v>42940</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G25" s="10">
@@ -1982,18 +1437,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="11">
         <v>42940</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="10">
@@ -2013,7 +1468,7 @@
       <c r="E27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G27" s="10">
@@ -2033,21 +1488,21 @@
       <c r="E28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G28" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A29" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="11">
@@ -2056,7 +1511,7 @@
       <c r="E29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="10">
@@ -2064,17 +1519,18 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C30" s="34"/>
       <c r="D30" s="11">
         <v>42940</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="10">
@@ -2082,15 +1538,16 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="C31" s="34"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G31" s="10">
@@ -2098,24 +1555,25 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="11">
         <v>42940</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:7">
+    <row r="33" spans="1:7" ht="27">
       <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
@@ -2131,21 +1589,21 @@
       <c r="E33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="34" ht="54" spans="1:7">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:7" ht="54">
+      <c r="A34" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="11">
@@ -2154,21 +1612,21 @@
       <c r="E34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="10">
         <v>42942</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A35" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="8">
@@ -2177,7 +1635,7 @@
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G35" s="10">
@@ -2185,25 +1643,25 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11">
         <v>42940</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G36" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="37" ht="40.5" spans="1:7">
+    <row r="37" spans="1:7" ht="40.5">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -2219,21 +1677,21 @@
       <c r="E37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A38" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="11">
@@ -2242,7 +1700,7 @@
       <c r="E38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G38" s="10">
@@ -2250,16 +1708,16 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="11"/>
       <c r="E39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G39" s="10">
@@ -2267,17 +1725,18 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C40" s="34"/>
       <c r="D40" s="11">
         <v>42940</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="10">
@@ -2285,24 +1744,25 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C41" s="34"/>
       <c r="D41" s="11">
         <v>42940</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G41" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="42" ht="40.5" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="40.5" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>69</v>
       </c>
@@ -2318,21 +1778,21 @@
       <c r="E42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G42" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="43" ht="108" spans="1:7">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:7" ht="108">
+      <c r="A43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D43" s="11">
@@ -2341,14 +1801,14 @@
       <c r="E43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G43" s="10">
         <v>42942</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:7">
+    <row r="44" spans="1:7" ht="27">
       <c r="A44" s="5" t="s">
         <v>74</v>
       </c>
@@ -2364,14 +1824,14 @@
       <c r="E44" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:7">
+    <row r="45" spans="1:7" ht="40.5">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -2387,7 +1847,7 @@
       <c r="E45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="10">
@@ -2395,13 +1855,13 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="33" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="11">
@@ -2410,7 +1870,7 @@
       <c r="E46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="10">
@@ -2418,18 +1878,18 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="11">
         <v>42940</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G47" s="10">
@@ -2437,18 +1897,18 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="11">
         <v>42940</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G48" s="10">
@@ -2456,13 +1916,13 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="35" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="11">
@@ -2471,7 +1931,7 @@
       <c r="E49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G49" s="10">
@@ -2479,18 +1939,18 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="11">
         <v>42940</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="10">
@@ -2498,32 +1958,32 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="11">
         <v>42940</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G51" s="10">
         <v>42943</v>
       </c>
     </row>
-    <row r="52" ht="94.5" spans="1:7">
+    <row r="52" spans="1:7" ht="94.5">
       <c r="A52" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D52" s="11">
@@ -2532,7 +1992,7 @@
       <c r="E52" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G52" s="10">
@@ -2555,7 +2015,7 @@
       <c r="E53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G53" s="10">
@@ -2578,62 +2038,70 @@
       <c r="E54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G54" s="10">
         <v>42941</v>
       </c>
     </row>
-    <row r="55" ht="40.5" spans="1:7">
+    <row r="55" spans="1:7" ht="40.5">
       <c r="A55" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="D55" s="11">
         <v>42947</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" ht="27" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="11">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27">
       <c r="A56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="D56" s="11">
         <v>42947</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" ht="27" spans="1:7">
-      <c r="A57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="11">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="27">
+      <c r="A57" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="21">
+      <c r="D57" s="25">
         <v>42947</v>
       </c>
       <c r="E57" s="5" t="s">
@@ -2643,66 +2111,75 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="11"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" ht="87" customHeight="1" spans="1:7">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:7" ht="87" customHeight="1">
+      <c r="A59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="D59" s="11">
         <v>42947</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" ht="40.5" spans="1:7">
-      <c r="A60" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="11">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40.5">
+      <c r="A60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D60" s="11">
         <v>42947</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" ht="12" customHeight="1" spans="1:7">
-      <c r="A61" s="14" t="s">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="11">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="12" customHeight="1">
+      <c r="A61" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="21">
+        <v>109</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="25">
         <v>42947</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -2712,12 +2189,12 @@
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="14"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="5" t="s">
         <v>40</v>
       </c>
@@ -2725,80 +2202,92 @@
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="14"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" ht="54" customHeight="1" spans="1:7">
-      <c r="A64" s="15" t="s">
-        <v>18</v>
+    <row r="64" spans="1:7" ht="54" customHeight="1">
+      <c r="A64" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="D64" s="11">
         <v>42947</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="E64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="21">
+        <v>42950</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="15"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="C65" s="24"/>
       <c r="D65" s="11">
         <v>42947</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" ht="40.5" spans="1:7">
+      <c r="E65" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="21">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="40.5">
       <c r="A66" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D66" s="11">
         <v>42947</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" ht="54" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="11">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="54">
       <c r="A67" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D67" s="11">
         <v>42948</v>
@@ -2809,15 +2298,15 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" ht="54" spans="1:7">
+    <row r="68" spans="1:7" ht="54">
       <c r="A68" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D68" s="11">
         <v>42948</v>
@@ -2828,12 +2317,28 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+    <row r="69" spans="1:7" ht="67.5">
+      <c r="A69" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="11">
+        <v>42950</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="21">
+        <v>42950</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="5"/>
@@ -5871,66 +5376,67 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C46:C48"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D61:D63"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F35 F36 F37 F38 F39 F43 F44 F45 F46 F47 F53 F54 F57 F1:F21 F33:F34 F40:F42 F48:F50 F51:F52 F55:F56 F58:F59 F60:F66 F67:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"李珂,苏士鹏"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38 E39 E43 E44 E45 E46 E47 E53 E54 E57 E1:E32 E33:E34 E35:E37 E40:E42 E48:E50 E51:E52 E55:E56 E58:E59 E60:E66 E67:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"未修复,已修复"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://192.168.6.3:8081/ehomeapp/app/live/getBusinessList?buildingID=1&amp;sort=1"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://192.168.6.3:8081/ehomeapp/app/live/getCommodityCategory?buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65"/>
-    <hyperlink ref="C7" r:id="rId3" display="http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65&amp;categoryID=dd16123150d9495aaadb086441768f48"/>
-    <hyperlink ref="C9" r:id="rId4" display="http://192.168.6.3:8081/ehomeapp/app/live/getShoppingCart?userID=12&amp;buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65"/>
-    <hyperlink ref="C10" r:id="rId5" display="http://192.168.6.3:8081/ehomeapp/app/live/getBusinessIndex?buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65"/>
-    <hyperlink ref="C13" r:id="rId6" display="http://192.168.6.3:8081/ehomeapp/app/live/getMoreGroupBuy?buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65"/>
-    <hyperlink ref="C14" r:id="rId7" display="http://192.168.6.3:8081/ehomeapp/app/live/getCommodityDetail?buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65&amp;commodityID=616e9850761b491a88d5ba879a31fd5a"/>
-    <hyperlink ref="C18" r:id="rId8" display="http://192.168.6.3:8081/ehomeapp/app/live/confirmBusinessOrder?userID=12&amp;buildingID=1&amp;businessID=ba43a8187b2549509ba3c6de692faf65"/>
-    <hyperlink ref="C35" r:id="rId9" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseList?buildingID=1&amp;sort=1"/>
-    <hyperlink ref="C21" r:id="rId10" display="http://192.168.6.3:8081/ehomeapp/app/live/getServiceList?buildingID=1&amp;sort=1"/>
-    <hyperlink ref="C29" r:id="rId11" display="http://192.168.6.3:8081/ehomeapp/app/live/getServiceIndex?businessID=f8343c52903649c9832315b9ce197b63"/>
-    <hyperlink ref="C38" r:id="rId12" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseIndex?businessID=3b29550a907540f89cf82ecc75f05108"/>
-    <hyperlink ref="C44" r:id="rId13" display="http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyList?userID=12&amp;buildingID=1&amp;type=1"/>
-    <hyperlink ref="C46" r:id="rId14" display="http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=12&amp;groupBuyID=04a3a43060894c55a5e5671e1ff4b97e"/>
-    <hyperlink ref="C37" r:id="rId15" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseItems?userID=12&amp;businessID=3b29550a907540f89cf82ecc75f05108"/>
-    <hyperlink ref="C42" r:id="rId16" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseItemDetail?userID=12&amp;courseID=2"/>
-    <hyperlink ref="C45" r:id="rId17" display="http://192.168.6.3:8081/ehomeapp/app/live/confirmCourseOrder?userID=12&amp;buildingID=1&amp;businessID=3b29550a907540f89cf82ecc75f05108&amp;courseID=2"/>
-    <hyperlink ref="C49" r:id="rId18" display="http://192.168.6.3:8081/ehomeapp/app/live/confirmGroupBuyOrder?userID=12&amp;buildingID=1&amp;businessID=703d9ef2dd2746b7837d13ec2ffef63c&amp;groupBuyID=04a3a43060894c55a5e5671e1ff4b97e"/>
-    <hyperlink ref="C33" r:id="rId19" display="http://192.168.6.3:8081/ehomeapp/app/live/getServiceItemDetail?serviceID=4"/>
-    <hyperlink ref="C64" r:id="rId20" display="http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?userID=1&amp;buildingID=1&amp;businessID=438b424856ce44428f2f4a83e9bad1f7&amp;categoryID=118198a742314b41b5b0aa4a0b451316"/>
-    <hyperlink ref="C55" r:id="rId21" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseItems?userID=1&amp;buildingID=1&amp;businessID=8f23207f56e74b82be56d7687843be39   "/>
-    <hyperlink ref="C56" r:id="rId22" display="http://192.168.6.3:8081/ehomeapp/app/live/getCourseItemDetail?userID=1&amp;buildingID=1&amp;courseID=1"/>
-    <hyperlink ref="C57" r:id="rId23" display="http://192.168.6.3:8081/ehomeapp/app/live/submitCourseOrder"/>
-    <hyperlink ref="C60" r:id="rId24" display="http://192.168.6.3:8081/ehomeapp/app/live/getSiteIndex?buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f"/>
-    <hyperlink ref="C61" r:id="rId25" display="http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743" tooltip="http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743"/>
-    <hyperlink ref="C66" r:id="rId26" display="http://192.168.6.3:8081/ehomeapp/app/live/getSites?userID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;buildingID=1"/>
-    <hyperlink ref="C59" r:id="rId27" display="http://192.168.6.3:8081/ehomeapp/app/live/confirmSiteOrder?userID=1&amp;buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;siteReservationID=f9cb2ad88976437a818126782f1a92ba%2Cd47300d0a483491e9b4840c9af129a8a"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C18" r:id="rId8"/>
+    <hyperlink ref="C35" r:id="rId9"/>
+    <hyperlink ref="C21" r:id="rId10"/>
+    <hyperlink ref="C29" r:id="rId11"/>
+    <hyperlink ref="C38" r:id="rId12"/>
+    <hyperlink ref="C44" r:id="rId13"/>
+    <hyperlink ref="C46" r:id="rId14"/>
+    <hyperlink ref="C37" r:id="rId15"/>
+    <hyperlink ref="C42" r:id="rId16"/>
+    <hyperlink ref="C45" r:id="rId17"/>
+    <hyperlink ref="C49" r:id="rId18"/>
+    <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="C64" r:id="rId20"/>
+    <hyperlink ref="C55" r:id="rId21"/>
+    <hyperlink ref="C56" r:id="rId22"/>
+    <hyperlink ref="C57" r:id="rId23"/>
+    <hyperlink ref="C60" r:id="rId24"/>
+    <hyperlink ref="C61" r:id="rId25" tooltip="http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743"/>
+    <hyperlink ref="C66" r:id="rId26"/>
+    <hyperlink ref="C59" r:id="rId27"/>
+    <hyperlink ref="C69" r:id="rId28"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="173">
   <si>
     <t>接口地址</t>
   </si>
@@ -350,207 +350,213 @@
     <t>http://192.168.6.3:8081/ehomeapp/app/live/submitCourseOrder</t>
   </si>
   <si>
+    <t>成功生成订单库存前后不变</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/confirmSiteOrder</t>
+  </si>
+  <si>
+    <t>totalMoney缺少</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmSiteOrder?userID=1&amp;buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;siteReservationID=f9cb2ad88976437a818126782f1a92ba%2Cd47300d0a483491e9b4840c9af129a8a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/getSiteIndex</t>
+  </si>
+  <si>
+    <t>缺少groupBuy</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSiteIndex?buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/getGroupBuyDetail</t>
+  </si>
+  <si>
+    <t>isAnyTimeCancel返回值有误</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
+  </si>
+  <si>
+    <t>isExpiredCancel返回值有误</t>
+  </si>
+  <si>
+    <t>isFreeReservation返回值有误</t>
+  </si>
+  <si>
+    <t>originalPrice、discountedPrice返回不是当前规格的数据</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?userID=1&amp;buildingID=1&amp;businessID=438b424856ce44428f2f4a83e9bad1f7&amp;categoryID=118198a742314b41b5b0aa4a0b451316</t>
+  </si>
+  <si>
+    <t>commodityNumber返回的不是当前规格的数量</t>
+  </si>
+  <si>
+    <t>live/getSites</t>
+  </si>
+  <si>
+    <t>返回的标签0:"电影"应为labelName:"电影"</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSites?userID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>正确生成订单后，服务库存不变</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmServiceOrder?userID=1&amp;buildingID=1&amp;businessID=2cd88f7156814937bbc97a2775a671d9&amp;serviceID=d5249392fc3f4b008893855bc7bd727b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /live/confirmGroupBuyOrder</t>
+  </si>
+  <si>
+    <t>正确生成订单后，团购库存不变</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmGroupBuyOrder?userID=1&amp;buildingID=1&amp;businessID=8f23207f56e74b82be56d7687843be39&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
+  </si>
+  <si>
+    <t>/live/addShoppingCart</t>
+  </si>
+  <si>
+    <t>获取数据为空</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/addShoppingCart?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c9f2e8a626e54330824114ec98121d20&amp;commodityID=8f125c3ac6394088a72473c6b70e1c75&amp;specificationID=a3660f76be074e0dac6400b68ae99f51</t>
+  </si>
+  <si>
+    <t>/live/getTopModule</t>
+  </si>
+  <si>
+    <t>数据库有数据，没有查询到</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getTopModule?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>/my/getAddressList</t>
+  </si>
+  <si>
+    <t>删除地址，再次请求地址列表接口，仍返回该地址</t>
+  </si>
+  <si>
+    <t>没问题</t>
+  </si>
+  <si>
+    <t>/my/setDefaultAddress</t>
+  </si>
+  <si>
+    <t>设置默认地址，传递正确的地址ID (addressID) 提示地址不正确</t>
+  </si>
+  <si>
+    <t>/account/login</t>
+  </si>
+  <si>
+    <t>返回userImage用户图像不正确</t>
+  </si>
+  <si>
+    <t>/live/getTopBusiness</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>Recom_Type = '0'所致</t>
+  </si>
+  <si>
+    <t>/live/getFooterBusiness</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getFooterBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>a.Use_State = '0' 所致</t>
+  </si>
+  <si>
+    <t>/live/getTopic</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopic?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>数据库字段名修改，实体类没有修改所致</t>
+  </si>
+  <si>
+    <t>modeID写成了prodType</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopModule?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>/live/getMiddleBusiness</t>
+  </si>
+  <si>
+    <t>返回数据结构不对</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getMiddleBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>groupBuyID返回不对</t>
+  </si>
+  <si>
+    <t>http://192.168.6.3:8081/ehomeapp/app/live/getBusinessIndex?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c6a1c8c7dbb14b9d9b9b1fcd27e7b4fd</t>
+  </si>
+  <si>
+    <t>/home/receiveCoupon</t>
+  </si>
+  <si>
+    <t>报5000</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/home/receiveCoupon?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;couponID=355718ac38e648b5a47848d622182e7c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>contactAddress没有包含楼盘名称</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/confirmBusinessOrder?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c9f2e8a626e54330824114ec98121d20</t>
+  </si>
+  <si>
+    <t>商品价格：默认显示商品原价，有优惠价，只显示优惠价不显示原价。commodityPrice没有满足要求</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getBusinessList?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;moduleID=01&amp;sort=1</t>
+  </si>
+  <si>
+    <t>/home/getCoupon</t>
+  </si>
+  <si>
+    <t>领过的优惠券不显示</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/home/getCoupon?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
+    <t>/home/getAllApplication</t>
+  </si>
+  <si>
+    <t>默认推荐的应用应该显示在常用应用里</t>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/home/getAllApplication?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+  </si>
+  <si>
     <t>未修复</t>
   </si>
   <si>
-    <t>成功生成订单库存前后不变</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/confirmSiteOrder</t>
-  </si>
-  <si>
-    <t>totalMoney缺少</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmSiteOrder?userID=1&amp;buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;siteReservationID=f9cb2ad88976437a818126782f1a92ba%2Cd47300d0a483491e9b4840c9af129a8a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/getSiteIndex</t>
-  </si>
-  <si>
-    <t>缺少groupBuy</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSiteIndex?buildingID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/getGroupBuyDetail</t>
-  </si>
-  <si>
-    <t>isAnyTimeCancel返回值有误</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getGroupBuyDetail?userID=1&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
-  </si>
-  <si>
-    <t>isExpiredCancel返回值有误</t>
-  </si>
-  <si>
-    <t>isFreeReservation返回值有误</t>
-  </si>
-  <si>
-    <t>originalPrice、discountedPrice返回不是当前规格的数据</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getCommoditiesByCategory?userID=1&amp;buildingID=1&amp;businessID=438b424856ce44428f2f4a83e9bad1f7&amp;categoryID=118198a742314b41b5b0aa4a0b451316</t>
-  </si>
-  <si>
-    <t>commodityNumber返回的不是当前规格的数量</t>
-  </si>
-  <si>
-    <t>live/getSites</t>
-  </si>
-  <si>
-    <t>返回的标签0:"电影"应为labelName:"电影"</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getSites?userID=1&amp;businessID=481e2387ae0a4a949cc090ba9363c66f&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>正确生成订单后，服务库存不变</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmServiceOrder?userID=1&amp;buildingID=1&amp;businessID=2cd88f7156814937bbc97a2775a671d9&amp;serviceID=d5249392fc3f4b008893855bc7bd727b</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /live/confirmGroupBuyOrder</t>
-  </si>
-  <si>
-    <t>正确生成订单后，团购库存不变</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/confirmGroupBuyOrder?userID=1&amp;buildingID=1&amp;businessID=8f23207f56e74b82be56d7687843be39&amp;groupBuyID=0ca91263775f4b2499ebbcff2077c743</t>
-  </si>
-  <si>
-    <t>/live/addShoppingCart</t>
-  </si>
-  <si>
-    <t>获取数据为空</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/addShoppingCart?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c9f2e8a626e54330824114ec98121d20&amp;commodityID=8f125c3ac6394088a72473c6b70e1c75&amp;specificationID=a3660f76be074e0dac6400b68ae99f51</t>
-  </si>
-  <si>
-    <t>/live/getTopModule</t>
-  </si>
-  <si>
-    <t>数据库有数据，没有查询到</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getTopModule?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>/my/getAddressList</t>
-  </si>
-  <si>
-    <t>删除地址，再次请求地址列表接口，仍返回该地址</t>
-  </si>
-  <si>
-    <t>没问题</t>
-  </si>
-  <si>
-    <t>/my/setDefaultAddress</t>
-  </si>
-  <si>
-    <t>设置默认地址，传递正确的地址ID (addressID) 提示地址不正确</t>
-  </si>
-  <si>
-    <t>/account/login</t>
-  </si>
-  <si>
-    <t>返回userImage用户图像不正确</t>
-  </si>
-  <si>
-    <t>/live/getTopBusiness</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>Recom_Type = '0'所致</t>
+    <t>http://192.168.6.8:8081/ehomeapp/app/live/getFooterBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>/live/getFooterBusiness</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getFooterBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>a.Use_State = '0' 所致</t>
-  </si>
-  <si>
-    <t>/live/getTopic</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopic?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>数据库字段名修改，实体类没有修改所致</t>
-  </si>
-  <si>
-    <t>modeID写成了prodType</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getTopModule?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>/live/getMiddleBusiness</t>
-  </si>
-  <si>
-    <t>返回数据结构不对</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getMiddleBusiness?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>groupBuyID返回不对</t>
-  </si>
-  <si>
-    <t>http://192.168.6.3:8081/ehomeapp/app/live/getBusinessIndex?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c6a1c8c7dbb14b9d9b9b1fcd27e7b4fd</t>
-  </si>
-  <si>
-    <t>/home/receiveCoupon</t>
-  </si>
-  <si>
-    <t>报5000</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/home/receiveCoupon?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;couponID=355718ac38e648b5a47848d622182e7c&amp;buildingID=1</t>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/confirmBusinessOrder?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;businessID=c9f2e8a626e54330824114ec98121d20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/live/confirmBusinessOrder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactAddress没有包含楼盘名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/live/getBusinessList?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1&amp;moduleID=01&amp;sort=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/live/getBusinessList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品价格：默认显示商品原价，有优惠价，只显示优惠价不显示原价。commodityPrice没有满足要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.6.8:8081/ehomeapp/app/home/getCoupon?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/getCoupon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领过的优惠券不显示</t>
+    <t>同一个商家多种产品模式，显示一条商家数据</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +608,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,23 +694,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -711,24 +719,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,13 +1080,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8">
@@ -1098,11 +1103,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="8">
         <v>42940</v>
       </c>
@@ -1117,11 +1122,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="8">
         <v>42940</v>
       </c>
@@ -1136,11 +1141,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="10">
         <v>42940</v>
       </c>
@@ -1178,13 +1183,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="10">
@@ -1201,11 +1206,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="10">
         <v>42940</v>
       </c>
@@ -1243,13 +1248,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="10">
@@ -1266,11 +1271,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="10">
         <v>42940</v>
       </c>
@@ -1285,11 +1290,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="10">
         <v>42940</v>
       </c>
@@ -1327,13 +1332,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="10">
@@ -1350,11 +1355,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="10">
         <v>42940</v>
       </c>
@@ -1369,11 +1374,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="10">
         <v>42941</v>
       </c>
@@ -1388,11 +1393,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10">
         <v>42940</v>
       </c>
@@ -1407,13 +1412,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="10">
@@ -1430,11 +1435,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="28"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="10">
         <v>42940</v>
       </c>
@@ -1449,11 +1454,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10">
         <v>42940</v>
       </c>
@@ -1468,13 +1473,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="8">
@@ -1491,11 +1496,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="8">
         <v>42940</v>
       </c>
@@ -1510,11 +1515,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8">
         <v>42940</v>
       </c>
@@ -1529,11 +1534,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8">
         <v>42940</v>
       </c>
@@ -1548,11 +1553,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="8">
         <v>42940</v>
       </c>
@@ -1567,11 +1572,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="10">
         <v>42940</v>
       </c>
@@ -1626,13 +1631,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="10">
@@ -1649,11 +1654,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="28"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="10">
         <v>42940</v>
       </c>
@@ -1668,11 +1673,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
         <v>10</v>
@@ -1685,11 +1690,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="10">
         <v>42940</v>
       </c>
@@ -1750,13 +1755,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="8">
@@ -1773,11 +1778,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="10">
         <v>42940</v>
       </c>
@@ -1815,13 +1820,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="10">
@@ -1838,11 +1843,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="23"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="s">
         <v>10</v>
@@ -1855,11 +1860,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="10">
         <v>42940</v>
       </c>
@@ -1874,11 +1879,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="23"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="10">
         <v>42940</v>
       </c>
@@ -1985,13 +1990,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="10">
@@ -2008,11 +2013,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="23"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="10">
         <v>42940</v>
       </c>
@@ -2027,11 +2032,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="10">
         <v>42940</v>
       </c>
@@ -2046,13 +2051,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="10">
@@ -2069,11 +2074,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="10">
         <v>42940</v>
       </c>
@@ -2088,11 +2093,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="23"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="10">
         <v>42940</v>
       </c>
@@ -2222,46 +2227,52 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="31">
         <v>42947</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="31">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="34"/>
-      <c r="B58" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="31"/>
     </row>
     <row r="59" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="D59" s="10">
         <v>42947</v>
@@ -2278,13 +2289,13 @@
     </row>
     <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="D60" s="10">
         <v>42947</v>
@@ -2300,16 +2311,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="32">
+      <c r="D61" s="31">
         <v>42947</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -2323,12 +2334,12 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="24"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="30"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="11" t="s">
         <v>10</v>
       </c>
@@ -2340,12 +2351,12 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="24"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="30"/>
-      <c r="D63" s="33"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="11" t="s">
         <v>10</v>
       </c>
@@ -2357,14 +2368,14 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="D64" s="10">
         <v>42947</v>
@@ -2380,11 +2391,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="31"/>
+        <v>118</v>
+      </c>
+      <c r="C65" s="28"/>
       <c r="D65" s="10">
         <v>42947</v>
       </c>
@@ -2400,13 +2411,13 @@
     </row>
     <row r="66" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="D66" s="10">
         <v>42947</v>
@@ -2426,48 +2437,56 @@
         <v>59</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D67" s="10">
         <v>42948</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
+      <c r="E67" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="10">
+        <v>42948</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D68" s="10">
         <v>42948</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
+      <c r="E68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="10">
+        <v>42948</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="D69" s="10">
         <v>42950</v>
@@ -2484,13 +2503,13 @@
     </row>
     <row r="70" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="D70" s="10">
         <v>42957</v>
@@ -2507,13 +2526,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D71" s="10">
         <v>42958</v>
@@ -2530,13 +2549,13 @@
     </row>
     <row r="72" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="10">
         <v>42958</v>
@@ -2553,13 +2572,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D73" s="10">
         <v>42958</v>
@@ -2576,13 +2595,13 @@
     </row>
     <row r="74" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="D74" s="10">
         <v>42962</v>
@@ -2597,18 +2616,18 @@
         <v>42962</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="D75" s="10">
         <v>42962</v>
@@ -2623,18 +2642,18 @@
         <v>42962</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="10">
         <v>42962</v>
@@ -2649,18 +2668,18 @@
         <v>42962</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>151</v>
       </c>
       <c r="D77" s="10">
         <v>42962</v>
@@ -2677,13 +2696,13 @@
     </row>
     <row r="78" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="D78" s="10">
         <v>42962</v>
@@ -2703,10 +2722,10 @@
         <v>24</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="D79" s="10">
         <v>42962</v>
@@ -2723,13 +2742,13 @@
     </row>
     <row r="80" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="D80" s="10">
         <v>42962</v>
@@ -2746,10 +2765,10 @@
     </row>
     <row r="81" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>160</v>
@@ -2757,61 +2776,97 @@
       <c r="D81" s="10">
         <v>42963</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
+      <c r="E81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="10">
+        <v>42962</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="20">
+        <v>161</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="10">
         <v>42964</v>
       </c>
-      <c r="E82" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
+      <c r="E82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="10">
+        <v>42965</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="10">
+        <v>42964</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="10">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C84" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="21">
+      <c r="D84" s="10">
         <v>42964</v>
       </c>
-      <c r="E83" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="5"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+    <row r="85" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="10">
+        <v>42966</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
@@ -5707,17 +5762,16 @@
       <c r="G498" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D61:D63"/>
+    <mergeCell ref="G57:G58"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C57:C58"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C12"/>
@@ -5728,6 +5782,8 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C57:C58"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A35:A36"/>
@@ -5741,10 +5797,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55 F56 F59 F60 F61 F62 F63 F69 F80 F1:F54 F57:F58 F64:F66 F67:F68 F70:F75 F76:F79 F81:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55 F56 F57 F58 F59 F60 F61 F62 F63 F67 F68 F69 F80 F1:F54 F64:F66 F70:F75 F76:F79 F81:F83 F84:F1048576">
       <formula1>"李珂,苏士鹏,尹晓银"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59 E69 E78 E79 E80 E1:E16 E17:E18 E19:E53 E54:E56 E57:E58 E60:E63 E64:E66 E67:E68 E70:E77 E81:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59 E69 E78 E79 E80 E1:E16 E17:E18 E19:E53 E54:E55 E56:E58 E60:E63 E64:E65 E66:E68 E70:E77 E81:E83 E84:E1048576">
       <formula1>"未修复,已修复"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5788,8 +5844,10 @@
     <hyperlink ref="C81" r:id="rId37"/>
     <hyperlink ref="C82" r:id="rId38"/>
     <hyperlink ref="C83" r:id="rId39"/>
+    <hyperlink ref="C84" r:id="rId40"/>
+    <hyperlink ref="C85" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
+++ b/3.ehome/06-开发/ehomeWebAPP/联调接口问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="176">
   <si>
     <t>接口地址</t>
   </si>
@@ -557,6 +557,18 @@
   </si>
   <si>
     <t>同一个商家多种产品模式，显示一条商家数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.6.8:8081/ehomeapp/app/home/getRecommendModule?userID=ad46667a7c8a4ef9abc777da68783f4c&amp;buildingID=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/getRecommendModule</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有用户ID的时候，也应该显示楼盘推送信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -694,17 +706,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -719,21 +752,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1042,7 +1060,7 @@
   <dimension ref="A1:H498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,13 +1098,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8">
@@ -1103,11 +1121,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="8">
         <v>42940</v>
       </c>
@@ -1122,11 +1140,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="8">
         <v>42940</v>
       </c>
@@ -1141,11 +1159,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="10">
         <v>42940</v>
       </c>
@@ -1183,13 +1201,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="10">
@@ -1206,11 +1224,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="10">
         <v>42940</v>
       </c>
@@ -1248,13 +1266,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="10">
@@ -1271,11 +1289,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="10">
         <v>42940</v>
       </c>
@@ -1290,11 +1308,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="10">
         <v>42940</v>
       </c>
@@ -1332,13 +1350,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="10">
@@ -1355,11 +1373,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="10">
         <v>42940</v>
       </c>
@@ -1374,11 +1392,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="10">
         <v>42941</v>
       </c>
@@ -1393,11 +1411,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="10">
         <v>42940</v>
       </c>
@@ -1412,13 +1430,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="10">
@@ -1435,11 +1453,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="10">
         <v>42940</v>
       </c>
@@ -1454,11 +1472,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="10">
         <v>42940</v>
       </c>
@@ -1473,13 +1491,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="8">
@@ -1496,11 +1514,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="8">
         <v>42940</v>
       </c>
@@ -1515,11 +1533,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="8">
         <v>42940</v>
       </c>
@@ -1534,11 +1552,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="8">
         <v>42940</v>
       </c>
@@ -1553,11 +1571,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="8">
         <v>42940</v>
       </c>
@@ -1572,11 +1590,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="10">
         <v>42940</v>
       </c>
@@ -1631,13 +1649,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="10">
@@ -1654,11 +1672,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="10">
         <v>42940</v>
       </c>
@@ -1673,11 +1691,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11" t="s">
         <v>10</v>
@@ -1690,11 +1708,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="10">
         <v>42940</v>
       </c>
@@ -1755,13 +1773,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="30" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="8">
@@ -1778,11 +1796,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="10">
         <v>42940</v>
       </c>
@@ -1820,13 +1838,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="10">
@@ -1843,11 +1861,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11" t="s">
         <v>10</v>
@@ -1860,11 +1878,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="10">
         <v>42940</v>
       </c>
@@ -1879,11 +1897,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="26"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="10">
         <v>42940</v>
       </c>
@@ -1990,13 +2008,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="10">
@@ -2013,11 +2031,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="10">
         <v>42940</v>
       </c>
@@ -2032,11 +2050,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="10">
         <v>42940</v>
       </c>
@@ -2051,13 +2069,13 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="27" t="s">
         <v>85</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="10">
@@ -2074,11 +2092,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="19"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="10">
         <v>42940</v>
       </c>
@@ -2093,11 +2111,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="10">
         <v>42940</v>
       </c>
@@ -2227,16 +2245,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="25">
         <v>42947</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -2245,24 +2263,24 @@
       <c r="F57" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="25">
         <v>42947</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="31"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
@@ -2311,16 +2329,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="25">
         <v>42947</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -2334,12 +2352,12 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="11" t="s">
         <v>10</v>
       </c>
@@ -2351,12 +2369,12 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="20"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="11" t="s">
         <v>10</v>
       </c>
@@ -2368,13 +2386,13 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D64" s="10">
@@ -2391,11 +2409,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="22"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="28"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="10">
         <v>42947</v>
       </c>
@@ -2855,7 +2873,7 @@
       <c r="A85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="12" t="s">
@@ -2870,10 +2888,22 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+    <row r="86" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="20">
+        <v>42966</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
@@ -5763,11 +5793,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A61:A63"/>
@@ -5784,16 +5819,11 @@
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
@@ -5846,8 +5876,9 @@
     <hyperlink ref="C83" r:id="rId39"/>
     <hyperlink ref="C84" r:id="rId40"/>
     <hyperlink ref="C85" r:id="rId41"/>
+    <hyperlink ref="C86" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>